--- a/Documents/機能一覧表.xlsx
+++ b/Documents/機能一覧表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D67F22D3-C394-46D9-BAE0-59A90271D48F}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77384AF6-CE9D-4202-9086-2F2847500F49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -211,7 +211,25 @@
     <t>アカウント一覧</t>
   </si>
   <si>
-    <t>登録アカウント一覧表示＆検索＆更新＆削除</t>
+    <t>登録アカウント一覧表示</t>
+  </si>
+  <si>
+    <t>アカウント検索</t>
+  </si>
+  <si>
+    <t>一覧からの既存アカウント検索</t>
+  </si>
+  <si>
+    <t>アカウント削除</t>
+  </si>
+  <si>
+    <t>一覧からの削除処理</t>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+  </si>
+  <si>
+    <t>一覧からの更新処理</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +2721,7 @@
   <dimension ref="A1:FQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3048,7 +3066,6 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11"/>
@@ -3154,13 +3171,17 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -3185,13 +3206,17 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -3216,13 +3241,17 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
